--- a/result/结果.xlsx
+++ b/result/结果.xlsx
@@ -19,17 +19,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
-    <t>实现</t>
+    <t>block_reduce + atomic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>atomicAdd+device_ptr</t>
+    <t>warp_reduce+atomic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reduce+restrict</t>
+    <t>atomic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block_reduce+extra_device_reduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=102400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=204800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=307200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=409600</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -105,6 +133,1277 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>加速比</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>atomic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$19:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>n=102400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>n=204800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>n=307200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>n=409600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>123.22880597432383</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>183.85005153346887</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>216.65709634202179</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.590521922971931</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-37D1-4BC6-8000-50CEB881CADB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>block_reduce + atomic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$19:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>n=102400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>n=204800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>n=307200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>n=409600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$19:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>202.98593178053855</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>238.68625571849626</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>381.34278891597432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291.3140753633499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-37D1-4BC6-8000-50CEB881CADB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>warp_reduce+atomic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$19:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>n=102400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>n=204800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>n=307200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>n=409600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$19:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>248.85793242516201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>337.69994230988164</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>380.73288895952953</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291.83314030443415</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-37D1-4BC6-8000-50CEB881CADB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>block_reduce+extra_device_reduce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$19:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>n=102400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>n=204800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>n=307200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>n=409600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$19:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>221.01407235455159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>288.26139937106916</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>394.41067146899923</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>282.14139730039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-37D1-4BC6-8000-50CEB881CADB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="777149376"/>
+        <c:axId val="777148960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="777149376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="777148960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="777148960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="777149376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="图表 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -370,52 +1669,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D13" sqref="D12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="32.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="32.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>100</v>
-      </c>
-      <c r="C1" s="1">
-        <v>100000</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>7.8899999999999994E-3</v>
+        <v>1762.3198</v>
       </c>
       <c r="C2" s="2">
-        <v>3.03807E-2</v>
+        <v>2640.0131999999999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3832.6857</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4585.9826999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>4.0911699999999999E-3</v>
+        <v>14.3012</v>
+      </c>
+      <c r="C3" s="2">
+        <v>14.3596</v>
+      </c>
+      <c r="D3" s="2">
+        <v>17.690100000000001</v>
+      </c>
+      <c r="E3" s="2">
+        <v>68.868399999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>8.6819799999999994</v>
+      </c>
+      <c r="C4" s="2">
+        <v>11.060600000000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10.0505</v>
+      </c>
+      <c r="E4" s="2">
+        <v>15.7424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7.0816299999999996</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7.8176300000000003</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10.066599999999999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>15.714399999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7.9737900000000002</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9.1584000000000003</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9.7174999999999994</v>
+      </c>
+      <c r="E6" s="2">
+        <v>16.254200000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2">
+        <f>1762.3198/B3</f>
+        <v>123.22880597432383</v>
+      </c>
+      <c r="C19" s="2">
+        <f>1762.3198/B4</f>
+        <v>202.98593178053855</v>
+      </c>
+      <c r="D19" s="2">
+        <f>1762.3198/B5</f>
+        <v>248.85793242516201</v>
+      </c>
+      <c r="E19" s="2">
+        <f>1762.3198/B6</f>
+        <v>221.01407235455159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2">
+        <f>2640.0132/C3</f>
+        <v>183.85005153346887</v>
+      </c>
+      <c r="C20" s="2">
+        <f>2640.0132/C4</f>
+        <v>238.68625571849626</v>
+      </c>
+      <c r="D20" s="2">
+        <f>2640.0132/C5</f>
+        <v>337.69994230988164</v>
+      </c>
+      <c r="E20" s="2">
+        <f>2640.0132/C6</f>
+        <v>288.26139937106916</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2">
+        <f>3832.6857/D3</f>
+        <v>216.65709634202179</v>
+      </c>
+      <c r="C21" s="2">
+        <f>3832.6857/D4</f>
+        <v>381.34278891597432</v>
+      </c>
+      <c r="D21" s="2">
+        <f>3832.6857/D5</f>
+        <v>380.73288895952953</v>
+      </c>
+      <c r="E21" s="2">
+        <f>3832.6857/D6</f>
+        <v>394.41067146899923</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2">
+        <f>4585.9827/E3</f>
+        <v>66.590521922971931</v>
+      </c>
+      <c r="C22" s="2">
+        <f>4585.9827/E4</f>
+        <v>291.3140753633499</v>
+      </c>
+      <c r="D22" s="2">
+        <f>4585.9827/E5</f>
+        <v>291.83314030443415</v>
+      </c>
+      <c r="E22" s="2">
+        <f>4585.9827/E6</f>
+        <v>282.14139730039</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>